--- a/Main Codes/data/patient_data.xlsx
+++ b/Main Codes/data/patient_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5647,6 +5647,63 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>khaled</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>30408021600079</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01012000690</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2/8/2004</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>medical examination</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>General checkup</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>2/8/2024</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
